--- a/NaiveBayesClassifier/test_result.xlsx
+++ b/NaiveBayesClassifier/test_result.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14959,10 +14959,10 @@
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -18546,10 +18546,10 @@
         <v>5</v>
       </c>
       <c r="D363" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -18818,10 +18818,10 @@
         <v>5</v>
       </c>
       <c r="D379" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -18903,10 +18903,10 @@
         <v>5</v>
       </c>
       <c r="D384" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -19685,10 +19685,10 @@
         <v>5</v>
       </c>
       <c r="D430" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -19940,10 +19940,10 @@
         <v>5</v>
       </c>
       <c r="D445" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -20229,10 +20229,10 @@
         <v>5</v>
       </c>
       <c r="D462" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -21062,10 +21062,10 @@
         <v>5</v>
       </c>
       <c r="D511" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -21249,10 +21249,10 @@
         <v>5</v>
       </c>
       <c r="D522" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -21385,10 +21385,10 @@
         <v>5</v>
       </c>
       <c r="D530" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -21623,10 +21623,10 @@
         <v>5</v>
       </c>
       <c r="D544" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -21708,10 +21708,10 @@
         <v>5</v>
       </c>
       <c r="D549" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -21725,10 +21725,10 @@
         <v>5</v>
       </c>
       <c r="D550" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -22507,10 +22507,10 @@
         <v>5</v>
       </c>
       <c r="D596" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -22881,10 +22881,10 @@
         <v>5</v>
       </c>
       <c r="D618" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -24037,10 +24037,10 @@
         <v>5</v>
       </c>
       <c r="D686" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -24224,10 +24224,10 @@
         <v>5</v>
       </c>
       <c r="D697" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -24462,10 +24462,10 @@
         <v>5</v>
       </c>
       <c r="D711" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -25346,10 +25346,10 @@
         <v>5</v>
       </c>
       <c r="D763" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -25448,10 +25448,10 @@
         <v>5</v>
       </c>
       <c r="D769" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -25992,10 +25992,10 @@
         <v>5</v>
       </c>
       <c r="D801" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:5">
@@ -26179,10 +26179,10 @@
         <v>5</v>
       </c>
       <c r="D812" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:5">
@@ -26247,10 +26247,10 @@
         <v>5</v>
       </c>
       <c r="D816" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:5">
@@ -26519,10 +26519,10 @@
         <v>5</v>
       </c>
       <c r="D832" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:5">
@@ -26825,10 +26825,10 @@
         <v>5</v>
       </c>
       <c r="D850" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:5">
@@ -26910,10 +26910,10 @@
         <v>5</v>
       </c>
       <c r="D855" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:5">
@@ -27318,10 +27318,10 @@
         <v>5</v>
       </c>
       <c r="D879" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -27556,10 +27556,10 @@
         <v>5</v>
       </c>
       <c r="D893" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:5">
@@ -29732,10 +29732,10 @@
         <v>5</v>
       </c>
       <c r="D1021" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1021" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:5">
@@ -29902,10 +29902,10 @@
         <v>5</v>
       </c>
       <c r="D1031" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1031" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:5">
@@ -30480,10 +30480,10 @@
         <v>5</v>
       </c>
       <c r="D1065" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1065" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:5">
@@ -31942,10 +31942,10 @@
         <v>5</v>
       </c>
       <c r="D1151" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:5">
@@ -32265,10 +32265,10 @@
         <v>5</v>
       </c>
       <c r="D1170" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:5">
@@ -32333,10 +32333,10 @@
         <v>5</v>
       </c>
       <c r="D1174" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:5">
@@ -32435,10 +32435,10 @@
         <v>5</v>
       </c>
       <c r="D1180" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:5">
@@ -32554,10 +32554,10 @@
         <v>5</v>
       </c>
       <c r="D1187" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:5">
@@ -32894,10 +32894,10 @@
         <v>5</v>
       </c>
       <c r="D1207" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:5">
@@ -33404,10 +33404,10 @@
         <v>5</v>
       </c>
       <c r="D1237" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:5">
@@ -33880,10 +33880,10 @@
         <v>5</v>
       </c>
       <c r="D1265" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:5">
@@ -34186,10 +34186,10 @@
         <v>5</v>
       </c>
       <c r="D1283" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:5">
@@ -34220,10 +34220,10 @@
         <v>5</v>
       </c>
       <c r="D1285" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:5">
@@ -34339,10 +34339,10 @@
         <v>5</v>
       </c>
       <c r="D1292" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:5">
@@ -34390,10 +34390,10 @@
         <v>5</v>
       </c>
       <c r="D1295" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:5">
@@ -34594,10 +34594,10 @@
         <v>5</v>
       </c>
       <c r="D1307" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:5">
@@ -34968,10 +34968,10 @@
         <v>5</v>
       </c>
       <c r="D1329" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:5">
@@ -35104,10 +35104,10 @@
         <v>5</v>
       </c>
       <c r="D1337" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:5">
@@ -35665,10 +35665,10 @@
         <v>5</v>
       </c>
       <c r="D1370" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1371" spans="1:5">
@@ -36498,10 +36498,10 @@
         <v>5</v>
       </c>
       <c r="D1419" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -37195,10 +37195,10 @@
         <v>5</v>
       </c>
       <c r="D1460" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -37586,10 +37586,10 @@
         <v>5</v>
       </c>
       <c r="D1483" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
@@ -37722,10 +37722,10 @@
         <v>5</v>
       </c>
       <c r="D1491" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1492" spans="1:5">
@@ -38402,10 +38402,10 @@
         <v>5</v>
       </c>
       <c r="D1531" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -38623,10 +38623,10 @@
         <v>5</v>
       </c>
       <c r="D1544" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -38895,10 +38895,10 @@
         <v>5</v>
       </c>
       <c r="D1560" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1561" spans="1:5">
@@ -39150,10 +39150,10 @@
         <v>5</v>
       </c>
       <c r="D1575" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1576" spans="1:5">
@@ -39252,10 +39252,10 @@
         <v>5</v>
       </c>
       <c r="D1581" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582" spans="1:5">
@@ -39354,10 +39354,10 @@
         <v>5</v>
       </c>
       <c r="D1587" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588" spans="1:5">
@@ -39388,10 +39388,10 @@
         <v>5</v>
       </c>
       <c r="D1589" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1590" spans="1:5">
@@ -39422,10 +39422,10 @@
         <v>5</v>
       </c>
       <c r="D1591" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1592" spans="1:5">
@@ -40952,10 +40952,10 @@
         <v>5</v>
       </c>
       <c r="D1681" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1682" spans="1:5">
@@ -40986,10 +40986,10 @@
         <v>5</v>
       </c>
       <c r="D1683" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
@@ -41139,10 +41139,10 @@
         <v>5</v>
       </c>
       <c r="D1692" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1693" spans="1:5">
@@ -41394,10 +41394,10 @@
         <v>5</v>
       </c>
       <c r="D1707" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1708" spans="1:5">
@@ -42210,10 +42210,10 @@
         <v>5</v>
       </c>
       <c r="D1755" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1756" spans="1:5">
@@ -42499,10 +42499,10 @@
         <v>5</v>
       </c>
       <c r="D1772" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1773" spans="1:5">
@@ -43332,10 +43332,10 @@
         <v>5</v>
       </c>
       <c r="D1821" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1822" spans="1:5">
@@ -43655,10 +43655,10 @@
         <v>5</v>
       </c>
       <c r="D1840" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1841" spans="1:5">
@@ -43859,10 +43859,10 @@
         <v>5</v>
       </c>
       <c r="D1852" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1853" spans="1:5">
@@ -43910,10 +43910,10 @@
         <v>5</v>
       </c>
       <c r="D1855" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1856" spans="1:5">
@@ -43995,10 +43995,10 @@
         <v>5</v>
       </c>
       <c r="D1860" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1861" spans="1:5">
@@ -44029,10 +44029,10 @@
         <v>5</v>
       </c>
       <c r="D1862" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1863" spans="1:5">
@@ -44369,10 +44369,10 @@
         <v>5</v>
       </c>
       <c r="D1882" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1883" spans="1:5">
@@ -44420,10 +44420,10 @@
         <v>5</v>
       </c>
       <c r="D1885" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1886" spans="1:5">
@@ -44760,10 +44760,10 @@
         <v>5</v>
       </c>
       <c r="D1905" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1906" spans="1:5">
@@ -45032,10 +45032,10 @@
         <v>5</v>
       </c>
       <c r="D1921" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1921" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1922" spans="1:5">
@@ -45372,10 +45372,10 @@
         <v>5</v>
       </c>
       <c r="D1941" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1942" spans="1:5">
@@ -45491,10 +45491,10 @@
         <v>5</v>
       </c>
       <c r="D1948" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1948" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1949" spans="1:5">
@@ -45576,10 +45576,10 @@
         <v>5</v>
       </c>
       <c r="D1953" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1954" spans="1:5">
@@ -45644,10 +45644,10 @@
         <v>5</v>
       </c>
       <c r="D1957" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1958" spans="1:5">
@@ -45712,10 +45712,10 @@
         <v>5</v>
       </c>
       <c r="D1961" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1962" spans="1:5">
@@ -46103,10 +46103,10 @@
         <v>5</v>
       </c>
       <c r="D1984" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E1984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1985" spans="1:5">
@@ -47395,10 +47395,10 @@
         <v>5</v>
       </c>
       <c r="D2060" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2060" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2061" spans="1:5">
@@ -48942,10 +48942,10 @@
         <v>5</v>
       </c>
       <c r="D2151" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2152" spans="1:5">
@@ -49367,10 +49367,10 @@
         <v>5</v>
       </c>
       <c r="D2176" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2177" spans="1:5">
@@ -50319,10 +50319,10 @@
         <v>5</v>
       </c>
       <c r="D2232" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2233" spans="1:5">
@@ -50472,10 +50472,10 @@
         <v>5</v>
       </c>
       <c r="D2241" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2242" spans="1:5">
@@ -50608,10 +50608,10 @@
         <v>5</v>
       </c>
       <c r="D2249" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2250" spans="1:5">
@@ -50846,10 +50846,10 @@
         <v>5</v>
       </c>
       <c r="D2263" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2264" spans="1:5">
@@ -51016,10 +51016,10 @@
         <v>5</v>
       </c>
       <c r="D2273" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2274" spans="1:5">
@@ -51186,10 +51186,10 @@
         <v>5</v>
       </c>
       <c r="D2283" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2284" spans="1:5">
@@ -51407,10 +51407,10 @@
         <v>5</v>
       </c>
       <c r="D2296" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2297" spans="1:5">
@@ -52308,10 +52308,10 @@
         <v>5</v>
       </c>
       <c r="D2349" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2350" spans="1:5">
@@ -52614,10 +52614,10 @@
         <v>5</v>
       </c>
       <c r="D2367" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2368" spans="1:5">
@@ -52631,10 +52631,10 @@
         <v>5</v>
       </c>
       <c r="D2368" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2369" spans="1:5">
@@ -53855,10 +53855,10 @@
         <v>5</v>
       </c>
       <c r="D2440" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2441" spans="1:5">
@@ -54059,10 +54059,10 @@
         <v>5</v>
       </c>
       <c r="D2452" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2453" spans="1:5">
@@ -54229,10 +54229,10 @@
         <v>5</v>
       </c>
       <c r="D2462" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2463" spans="1:5">
@@ -54399,10 +54399,10 @@
         <v>5</v>
       </c>
       <c r="D2472" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2473" spans="1:5">
@@ -55691,10 +55691,10 @@
         <v>5</v>
       </c>
       <c r="D2548" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2549" spans="1:5">
@@ -55725,10 +55725,10 @@
         <v>5</v>
       </c>
       <c r="D2550" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2551" spans="1:5">
@@ -55946,10 +55946,10 @@
         <v>5</v>
       </c>
       <c r="D2563" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2564" spans="1:5">
@@ -56065,10 +56065,10 @@
         <v>5</v>
       </c>
       <c r="D2570" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2571" spans="1:5">
@@ -56116,10 +56116,10 @@
         <v>5</v>
       </c>
       <c r="D2573" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2574" spans="1:5">
@@ -56660,10 +56660,10 @@
         <v>5</v>
       </c>
       <c r="D2605" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2606" spans="1:5">
@@ -57051,10 +57051,10 @@
         <v>5</v>
       </c>
       <c r="D2628" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2629" spans="1:5">
@@ -57238,10 +57238,10 @@
         <v>5</v>
       </c>
       <c r="D2639" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2640" spans="1:5">
@@ -57561,10 +57561,10 @@
         <v>5</v>
       </c>
       <c r="D2658" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2659" spans="1:5">
@@ -57595,10 +57595,10 @@
         <v>5</v>
       </c>
       <c r="D2660" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2661" spans="1:5">
@@ -57799,10 +57799,10 @@
         <v>5</v>
       </c>
       <c r="D2672" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2673" spans="1:5">
@@ -58598,10 +58598,10 @@
         <v>5</v>
       </c>
       <c r="D2719" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2720" spans="1:5">
@@ -58768,10 +58768,10 @@
         <v>5</v>
       </c>
       <c r="D2729" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2730" spans="1:5">
@@ -58836,10 +58836,10 @@
         <v>5</v>
       </c>
       <c r="D2733" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2734" spans="1:5">
@@ -58972,10 +58972,10 @@
         <v>5</v>
       </c>
       <c r="D2741" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2742" spans="1:5">
@@ -59091,10 +59091,10 @@
         <v>5</v>
       </c>
       <c r="D2748" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2749" spans="1:5">
@@ -59380,10 +59380,10 @@
         <v>5</v>
       </c>
       <c r="D2765" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2766" spans="1:5">
@@ -59482,10 +59482,10 @@
         <v>5</v>
       </c>
       <c r="D2771" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2772" spans="1:5">
@@ -60434,10 +60434,10 @@
         <v>5</v>
       </c>
       <c r="D2827" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2828" spans="1:5">
@@ -60791,10 +60791,10 @@
         <v>5</v>
       </c>
       <c r="D2848" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2849" spans="1:5">
@@ -61114,10 +61114,10 @@
         <v>5</v>
       </c>
       <c r="D2867" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2868" spans="1:5">
@@ -61437,10 +61437,10 @@
         <v>5</v>
       </c>
       <c r="D2886" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2887" spans="1:5">
@@ -61675,10 +61675,10 @@
         <v>5</v>
       </c>
       <c r="D2900" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2901" spans="1:5">
@@ -62066,10 +62066,10 @@
         <v>5</v>
       </c>
       <c r="D2923" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2924" spans="1:5">
@@ -62253,10 +62253,10 @@
         <v>5</v>
       </c>
       <c r="D2934" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2935" spans="1:5">
@@ -62270,10 +62270,10 @@
         <v>5</v>
       </c>
       <c r="D2935" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2936" spans="1:5">
@@ -62321,10 +62321,10 @@
         <v>5</v>
       </c>
       <c r="D2938" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2939" spans="1:5">
@@ -62372,10 +62372,10 @@
         <v>5</v>
       </c>
       <c r="D2941" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2941" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2942" spans="1:5">
@@ -62576,10 +62576,10 @@
         <v>5</v>
       </c>
       <c r="D2953" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2954" spans="1:5">
@@ -63358,10 +63358,10 @@
         <v>5</v>
       </c>
       <c r="D2999" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E2999" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3000" spans="1:5">
@@ -64378,10 +64378,10 @@
         <v>5</v>
       </c>
       <c r="D3059" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3060" spans="1:5">
@@ -64803,10 +64803,10 @@
         <v>5</v>
       </c>
       <c r="D3084" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3084" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3085" spans="1:5">
@@ -64990,10 +64990,10 @@
         <v>5</v>
       </c>
       <c r="D3095" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3096" spans="1:5">
@@ -65806,10 +65806,10 @@
         <v>5</v>
       </c>
       <c r="D3143" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3144" spans="1:5">
@@ -65823,10 +65823,10 @@
         <v>5</v>
       </c>
       <c r="D3144" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3145" spans="1:5">
@@ -66639,10 +66639,10 @@
         <v>5</v>
       </c>
       <c r="D3192" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3193" spans="1:5">
@@ -66860,10 +66860,10 @@
         <v>5</v>
       </c>
       <c r="D3205" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3206" spans="1:5">
@@ -67217,10 +67217,10 @@
         <v>5</v>
       </c>
       <c r="D3226" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3227" spans="1:5">
@@ -67302,10 +67302,10 @@
         <v>5</v>
       </c>
       <c r="D3231" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3232" spans="1:5">
@@ -67370,10 +67370,10 @@
         <v>3236</v>
       </c>
       <c r="D3235" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3236" spans="1:5">
@@ -68203,10 +68203,10 @@
         <v>3236</v>
       </c>
       <c r="D3284" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3285" spans="1:5">
@@ -68577,10 +68577,10 @@
         <v>3236</v>
       </c>
       <c r="D3306" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3307" spans="1:5">
@@ -69648,10 +69648,10 @@
         <v>3236</v>
       </c>
       <c r="D3369" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3370" spans="1:5">
@@ -69784,10 +69784,10 @@
         <v>3236</v>
       </c>
       <c r="D3377" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3378" spans="1:5">
@@ -70379,10 +70379,10 @@
         <v>3236</v>
       </c>
       <c r="D3412" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3413" spans="1:5">
@@ -70957,10 +70957,10 @@
         <v>3236</v>
       </c>
       <c r="D3446" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3447" spans="1:5">
@@ -70991,10 +70991,10 @@
         <v>3236</v>
       </c>
       <c r="D3448" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3449" spans="1:5">
@@ -72589,10 +72589,10 @@
         <v>3236</v>
       </c>
       <c r="D3542" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3543" spans="1:5">
@@ -72878,10 +72878,10 @@
         <v>3236</v>
       </c>
       <c r="D3559" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3560" spans="1:5">
@@ -73558,10 +73558,10 @@
         <v>3236</v>
       </c>
       <c r="D3599" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3600" spans="1:5">
@@ -74493,10 +74493,10 @@
         <v>3236</v>
       </c>
       <c r="D3654" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3655" spans="1:5">
@@ -74629,10 +74629,10 @@
         <v>3236</v>
       </c>
       <c r="D3662" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3663" spans="1:5">
@@ -74969,10 +74969,10 @@
         <v>3236</v>
       </c>
       <c r="D3682" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3683" spans="1:5">
@@ -75054,10 +75054,10 @@
         <v>3236</v>
       </c>
       <c r="D3687" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3688" spans="1:5">
@@ -76142,10 +76142,10 @@
         <v>3236</v>
       </c>
       <c r="D3751" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3752" spans="1:5">
@@ -77128,10 +77128,10 @@
         <v>3236</v>
       </c>
       <c r="D3809" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3810" spans="1:5">
@@ -77400,10 +77400,10 @@
         <v>3236</v>
       </c>
       <c r="D3825" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3826" spans="1:5">
@@ -77553,10 +77553,10 @@
         <v>3236</v>
       </c>
       <c r="D3834" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3834" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3835" spans="1:5">
@@ -78590,10 +78590,10 @@
         <v>3236</v>
       </c>
       <c r="D3895" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3896" spans="1:5">
@@ -78658,10 +78658,10 @@
         <v>3236</v>
       </c>
       <c r="D3899" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3900" spans="1:5">
@@ -79559,10 +79559,10 @@
         <v>3236</v>
       </c>
       <c r="D3952" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3952" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3953" spans="1:5">
@@ -79712,10 +79712,10 @@
         <v>3236</v>
       </c>
       <c r="D3961" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E3961" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3962" spans="1:5">
@@ -80154,10 +80154,10 @@
         <v>3236</v>
       </c>
       <c r="D3987" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E3987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3988" spans="1:5">
